--- a/SchedulingData/dynamic15/pso/scheduling2_6.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_6.xlsx
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>207.84</v>
+        <v>238.08</v>
       </c>
       <c r="D2" t="n">
-        <v>266.54</v>
+        <v>307.5</v>
       </c>
       <c r="E2" t="n">
-        <v>14.376</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>223.6</v>
+        <v>307.5</v>
       </c>
       <c r="D3" t="n">
-        <v>278.12</v>
+        <v>378.4</v>
       </c>
       <c r="E3" t="n">
-        <v>14.308</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>229.34</v>
+        <v>228.1</v>
       </c>
       <c r="D4" t="n">
-        <v>287.14</v>
+        <v>292.3</v>
       </c>
       <c r="E4" t="n">
-        <v>11.616</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>278.12</v>
+        <v>205.88</v>
       </c>
       <c r="D5" t="n">
-        <v>325.9</v>
+        <v>293.98</v>
       </c>
       <c r="E5" t="n">
-        <v>10.66</v>
+        <v>14.612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>266.54</v>
+        <v>378.4</v>
       </c>
       <c r="D6" t="n">
-        <v>330.64</v>
+        <v>446.4</v>
       </c>
       <c r="E6" t="n">
-        <v>9.096</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>222.1</v>
+        <v>293.98</v>
       </c>
       <c r="D7" t="n">
-        <v>272.1</v>
+        <v>345.32</v>
       </c>
       <c r="E7" t="n">
-        <v>13.48</v>
+        <v>11.108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>218.94</v>
+        <v>345.32</v>
       </c>
       <c r="D8" t="n">
-        <v>263.3</v>
+        <v>393.02</v>
       </c>
       <c r="E8" t="n">
-        <v>14.34</v>
+        <v>8.948</v>
       </c>
     </row>
     <row r="9">
@@ -603,108 +603,108 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>287.14</v>
+        <v>393.02</v>
       </c>
       <c r="D9" t="n">
-        <v>330.56</v>
+        <v>436.44</v>
       </c>
       <c r="E9" t="n">
-        <v>8.404</v>
+        <v>5.736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>325.9</v>
+        <v>244.66</v>
       </c>
       <c r="D10" t="n">
-        <v>386.2</v>
+        <v>278.86</v>
       </c>
       <c r="E10" t="n">
-        <v>6.76</v>
+        <v>12.744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>209.16</v>
+        <v>225.52</v>
       </c>
       <c r="D11" t="n">
-        <v>271.96</v>
+        <v>299.52</v>
       </c>
       <c r="E11" t="n">
-        <v>15.324</v>
+        <v>11.688</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>330.56</v>
+        <v>299.52</v>
       </c>
       <c r="D12" t="n">
-        <v>378.54</v>
+        <v>338.16</v>
       </c>
       <c r="E12" t="n">
-        <v>5.236</v>
+        <v>9.444000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>272.1</v>
+        <v>338.16</v>
       </c>
       <c r="D13" t="n">
-        <v>352.96</v>
+        <v>387.22</v>
       </c>
       <c r="E13" t="n">
-        <v>10.004</v>
+        <v>6.168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>352.96</v>
+        <v>278.86</v>
       </c>
       <c r="D14" t="n">
-        <v>427.18</v>
+        <v>343.86</v>
       </c>
       <c r="E14" t="n">
-        <v>6.212</v>
+        <v>7.884</v>
       </c>
     </row>
     <row r="15">
@@ -713,93 +713,93 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>263.3</v>
+        <v>292.3</v>
       </c>
       <c r="D15" t="n">
-        <v>322.72</v>
+        <v>336.62</v>
       </c>
       <c r="E15" t="n">
-        <v>10.028</v>
+        <v>8.167999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>271.96</v>
+        <v>237.52</v>
       </c>
       <c r="D16" t="n">
-        <v>331.86</v>
+        <v>280.54</v>
       </c>
       <c r="E16" t="n">
-        <v>10.464</v>
+        <v>13.556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>331.86</v>
+        <v>436.44</v>
       </c>
       <c r="D17" t="n">
-        <v>404.76</v>
+        <v>490.66</v>
       </c>
       <c r="E17" t="n">
-        <v>6.264</v>
+        <v>3.404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>427.18</v>
+        <v>343.86</v>
       </c>
       <c r="D18" t="n">
-        <v>479.56</v>
+        <v>418.86</v>
       </c>
       <c r="E18" t="n">
-        <v>2.604</v>
+        <v>4.504</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>378.54</v>
+        <v>280.54</v>
       </c>
       <c r="D19" t="n">
-        <v>445.62</v>
+        <v>326.6</v>
       </c>
       <c r="E19" t="n">
-        <v>1.148</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="20">
@@ -808,14 +808,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>445.62</v>
+        <v>490.66</v>
       </c>
       <c r="D20" t="n">
-        <v>539.8200000000001</v>
+        <v>560.75</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
@@ -823,40 +823,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>330.64</v>
+        <v>560.75</v>
       </c>
       <c r="D21" t="n">
-        <v>388.14</v>
+        <v>616.55</v>
       </c>
       <c r="E21" t="n">
-        <v>5.456</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>322.72</v>
+        <v>446.4</v>
       </c>
       <c r="D22" t="n">
-        <v>366.82</v>
+        <v>525.72</v>
       </c>
       <c r="E22" t="n">
-        <v>7.748</v>
+        <v>2.408</v>
       </c>
     </row>
     <row r="23">
@@ -865,150 +865,150 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>386.2</v>
+        <v>387.22</v>
       </c>
       <c r="D23" t="n">
-        <v>432.2</v>
+        <v>442.86</v>
       </c>
       <c r="E23" t="n">
-        <v>2.8</v>
+        <v>3.204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>432.2</v>
+        <v>336.62</v>
       </c>
       <c r="D24" t="n">
-        <v>503.4</v>
+        <v>379.42</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>4.528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>503.4</v>
+        <v>379.42</v>
       </c>
       <c r="D25" t="n">
-        <v>542.12</v>
+        <v>438.58</v>
       </c>
       <c r="E25" t="n">
-        <v>26.828</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>404.76</v>
+        <v>438.58</v>
       </c>
       <c r="D26" t="n">
-        <v>491.24</v>
+        <v>516.86</v>
       </c>
       <c r="E26" t="n">
-        <v>3.196</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>539.8200000000001</v>
+        <v>516.86</v>
       </c>
       <c r="D27" t="n">
-        <v>588.08</v>
+        <v>587.34</v>
       </c>
       <c r="E27" t="n">
-        <v>26.864</v>
+        <v>26.112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>588.08</v>
+        <v>525.72</v>
       </c>
       <c r="D28" t="n">
-        <v>637.04</v>
+        <v>617.5</v>
       </c>
       <c r="E28" t="n">
-        <v>23.588</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>388.14</v>
+        <v>617.5</v>
       </c>
       <c r="D29" t="n">
-        <v>476.26</v>
+        <v>698.76</v>
       </c>
       <c r="E29" t="n">
-        <v>1.244</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>476.26</v>
+        <v>698.76</v>
       </c>
       <c r="D30" t="n">
-        <v>565.47</v>
+        <v>750.9</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="31">
@@ -1017,112 +1017,112 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>479.56</v>
+        <v>326.6</v>
       </c>
       <c r="D31" t="n">
-        <v>570.75</v>
+        <v>381.38</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>6.232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>570.75</v>
+        <v>587.34</v>
       </c>
       <c r="D32" t="n">
-        <v>634.95</v>
+        <v>627.24</v>
       </c>
       <c r="E32" t="n">
-        <v>24.78</v>
+        <v>23.252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>634.95</v>
+        <v>627.24</v>
       </c>
       <c r="D33" t="n">
-        <v>696.1900000000001</v>
+        <v>698.9</v>
       </c>
       <c r="E33" t="n">
-        <v>22.236</v>
+        <v>19.716</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>542.12</v>
+        <v>418.86</v>
       </c>
       <c r="D34" t="n">
-        <v>596.9</v>
+        <v>506.96</v>
       </c>
       <c r="E34" t="n">
-        <v>22.98</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>366.82</v>
+        <v>506.96</v>
       </c>
       <c r="D35" t="n">
-        <v>426.8</v>
+        <v>612.75</v>
       </c>
       <c r="E35" t="n">
-        <v>3.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>565.47</v>
+        <v>442.86</v>
       </c>
       <c r="D36" t="n">
-        <v>605.6900000000001</v>
+        <v>503.6</v>
       </c>
       <c r="E36" t="n">
-        <v>27.668</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="37">
@@ -1131,17 +1131,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>596.9</v>
+        <v>503.6</v>
       </c>
       <c r="D37" t="n">
-        <v>645</v>
+        <v>594.72</v>
       </c>
       <c r="E37" t="n">
-        <v>19.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1150,79 +1150,79 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>426.8</v>
+        <v>698.9</v>
       </c>
       <c r="D38" t="n">
-        <v>484.3</v>
+        <v>756.4</v>
       </c>
       <c r="E38" t="n">
-        <v>1.22</v>
+        <v>17.556</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>484.3</v>
+        <v>594.72</v>
       </c>
       <c r="D39" t="n">
-        <v>593.16</v>
+        <v>651.14</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>26.528</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>605.6900000000001</v>
+        <v>381.38</v>
       </c>
       <c r="D40" t="n">
-        <v>677.27</v>
+        <v>429.08</v>
       </c>
       <c r="E40" t="n">
-        <v>24.14</v>
+        <v>2.592</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>645</v>
+        <v>612.75</v>
       </c>
       <c r="D41" t="n">
-        <v>715.8200000000001</v>
+        <v>690.13</v>
       </c>
       <c r="E41" t="n">
-        <v>16.328</v>
+        <v>25.912</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>491.24</v>
+        <v>429.08</v>
       </c>
       <c r="D42" t="n">
-        <v>556.85</v>
+        <v>520.3</v>
       </c>
       <c r="E42" t="n">
         <v>30</v>
@@ -1241,40 +1241,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>556.85</v>
+        <v>520.3</v>
       </c>
       <c r="D43" t="n">
-        <v>626.01</v>
+        <v>568.5599999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>25.744</v>
+        <v>26.864</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>637.04</v>
+        <v>568.5599999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>704.96</v>
+        <v>642.22</v>
       </c>
       <c r="E44" t="n">
-        <v>20.416</v>
+        <v>22.608</v>
       </c>
     </row>
     <row r="45">
@@ -1283,41 +1283,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>626.01</v>
+        <v>750.9</v>
       </c>
       <c r="D45" t="n">
-        <v>664.65</v>
+        <v>782.74</v>
       </c>
       <c r="E45" t="n">
-        <v>23.5</v>
+        <v>19.896</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>664.65</v>
+        <v>616.55</v>
       </c>
       <c r="D46" t="n">
-        <v>716.41</v>
+        <v>662.25</v>
       </c>
       <c r="E46" t="n">
-        <v>19.964</v>
+        <v>22.66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1325,32 +1325,32 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>677.27</v>
+        <v>642.22</v>
       </c>
       <c r="D47" t="n">
-        <v>753.13</v>
+        <v>688.28</v>
       </c>
       <c r="E47" t="n">
-        <v>21.164</v>
+        <v>19.632</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>704.96</v>
+        <v>651.14</v>
       </c>
       <c r="D48" t="n">
-        <v>765.8</v>
+        <v>707.72</v>
       </c>
       <c r="E48" t="n">
-        <v>17.452</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
